--- a/biology/Botanique/Confrérie_de_Saint-Vernier/Confrérie_de_Saint-Vernier.xlsx
+++ b/biology/Botanique/Confrérie_de_Saint-Vernier/Confrérie_de_Saint-Vernier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_de_Saint-Vernier</t>
+          <t>Confrérie_de_Saint-Vernier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La confrérie de Saint-Vernier (1548-1868) est une confrérie religieuse, regroupant les vignerons bisontins, sous le patronage de Vernier d'Oberwesel.
 Créée en 1548, elle est établie à l'Église Sainte-Madeleine de Besançon ; elle inspire vite des ramifications dans toute la Franche-Comté. Elle évoluera, au fil des siècles, en société de secours mutuel.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_de_Saint-Vernier</t>
+          <t>Confrérie_de_Saint-Vernier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,21 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avant 1548 : contexte de création
-D'après Frédéric Grosrenaud, dès 1512, les vignerons bisontins sont constitués en corps par les gouverneurs de la cité[1]. Les magistrats interdisent – en 1534 selon Jean Brelot[2]-, le travail à la tâche, ainsi que de payer les vignerons à un tarif trop élevé[3],[2],[note 1], Aussi la législation interdit de trop les nourrir[4].
-Ils sont, à cette époque, étroitement surveillés par la magistrature[2],[5]. En 1537, les vignerons revendiquent leur droit de fixer eux-mêmes le prix du vin. Plusieurs seront arrêtés ; l'un d'entre eux sera condamné à six ans d'exil[2].
-1548 - 1678 : fondation et développement
-En 1548, grâce à la requête Jean Chuppin, chanoine de la Madeleine, les vignerons font l'acquisition de l'index ainsi que d'une partie du suaire de Vernier d'Oberwesel, dit saint Vernier. Ils créent alors leurs propre confrérie sous sa protection[6],[5],[7],[8]. 
-Par la suite, le culte de Saint-Vernier s'étendra à la province environnante. On voit ainsi naitre des organisations similaires dans le comté de Bourgogne[5],[6].
-On ne sait toutefois que très peu de choses de cette confrérie durant la deuxième moitié du XVIIe siècle, si ce n'est qu'elle servit de contrepoids face à la législation de magistrats[5].
-1678 - 1789 : de la conquête Française à la révolution
-Suites de la conquête française, la confrérie de Saint-Vernier est confirmée par une bulle du papale rédigée par Innocent XI, à Rome, le 10 décembre 1684[6]. 
-D'après le chanoine Suchet, les vignerons se montrent, dans un premier temps, hostiles à Louis XIV. Craignant de perdre en libertés[7],[note 2]. Toutefois, au XVIIIe siècle, elle est l'une des confrérie les plus riche de la cité[9]. Puis, en 1770, elle évolue et devient une société de secours mutuel[8].
-Après la reconstruction de l'église de la Madeleine, d'après les plans d'Alexandre Bertrand[10], elle érige une chapelle en l'honneur de saint Vernier[6],[10], et la fait décorer d'une toile du peintre Francis Jourdain, en 1788[10],[11]. 
-La confrérie de Saint-Vernier est dissoute dans le contexte révolutionnaire[8]. Le suaire et l'os de Saint-Vernier disparaissent [6].
-1804 - 1868 : recréation
-Malgré sa mise en sommeil, elle est recréée en 1804[8]. Toutefois, en 1860, le docteur J. Druhen la décrit comme perdant en importance, et, décrit son mutuellisme comme tombant en désuétude, en raison du net recul du vignoble bisontin[12].
-La confrérie disparait définitivement en 1868. Plusieurs objets lui ayant appartenu sont encore conservés au musée de l'église Sainte-Madeleine[8].
+          <t>Avant 1548 : contexte de création</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Frédéric Grosrenaud, dès 1512, les vignerons bisontins sont constitués en corps par les gouverneurs de la cité. Les magistrats interdisent – en 1534 selon Jean Brelot-, le travail à la tâche, ainsi que de payer les vignerons à un tarif trop élevé[note 1], Aussi la législation interdit de trop les nourrir.
+Ils sont, à cette époque, étroitement surveillés par la magistrature,. En 1537, les vignerons revendiquent leur droit de fixer eux-mêmes le prix du vin. Plusieurs seront arrêtés ; l'un d'entre eux sera condamné à six ans d'exil.
 </t>
         </is>
       </c>
@@ -540,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_de_Saint-Vernier</t>
+          <t>Confrérie_de_Saint-Vernier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,14 +560,133 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1548 - 1678 : fondation et développement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1548, grâce à la requête Jean Chuppin, chanoine de la Madeleine, les vignerons font l'acquisition de l'index ainsi que d'une partie du suaire de Vernier d'Oberwesel, dit saint Vernier. Ils créent alors leurs propre confrérie sous sa protection. 
+Par la suite, le culte de Saint-Vernier s'étendra à la province environnante. On voit ainsi naitre des organisations similaires dans le comté de Bourgogne,.
+On ne sait toutefois que très peu de choses de cette confrérie durant la deuxième moitié du XVIIe siècle, si ce n'est qu'elle servit de contrepoids face à la législation de magistrats.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Confrérie_de_Saint-Vernier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie_de_Saint-Vernier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1678 - 1789 : de la conquête Française à la révolution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suites de la conquête française, la confrérie de Saint-Vernier est confirmée par une bulle du papale rédigée par Innocent XI, à Rome, le 10 décembre 1684. 
+D'après le chanoine Suchet, les vignerons se montrent, dans un premier temps, hostiles à Louis XIV. Craignant de perdre en libertés,[note 2]. Toutefois, au XVIIIe siècle, elle est l'une des confrérie les plus riche de la cité. Puis, en 1770, elle évolue et devient une société de secours mutuel.
+Après la reconstruction de l'église de la Madeleine, d'après les plans d'Alexandre Bertrand, elle érige une chapelle en l'honneur de saint Vernier et la fait décorer d'une toile du peintre Francis Jourdain, en 1788,. 
+La confrérie de Saint-Vernier est dissoute dans le contexte révolutionnaire. Le suaire et l'os de Saint-Vernier disparaissent .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Confrérie_de_Saint-Vernier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie_de_Saint-Vernier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1804 - 1868 : recréation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré sa mise en sommeil, elle est recréée en 1804. Toutefois, en 1860, le docteur J. Druhen la décrit comme perdant en importance, et, décrit son mutuellisme comme tombant en désuétude, en raison du net recul du vignoble bisontin.
+La confrérie disparait définitivement en 1868. Plusieurs objets lui ayant appartenu sont encore conservés au musée de l'église Sainte-Madeleine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Confrérie_de_Saint-Vernier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie_de_Saint-Vernier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description et fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses armoiries sont : D'azur à un Saint Vernier d'or, tenant dans sa main une palme de même[13],[14]. Elle est dirigée par un conseil ainsi que par sept prieurs[9]. Elle a un caractère profondément catholique[11].
-Lorsqu'un vigneron est malade, ses confrères effectuent des journées de travail sur ses vignes[5],[8]. Toutefois aucun salaire ne lui est versé[8]. Si il décède, la confrérie travail gratuitement 70 jours pour sa veuve et ses enfants[5],[8].
-La fête de Saint-Vernier a cours le mardi de Quasimodo[6],[5],[8]. Les membres fond une offrande à leur saint patron et boivent quelques goutes de vin dans un même vase, suivant l'ancienne coutume[6],[11]. Il sont vêtus d'une culotte ainsi que d'un chapeau tricorne ; tenu de Barbizier ; personnage folklorique des vignerons bisontins[6],[7],[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses armoiries sont : D'azur à un Saint Vernier d'or, tenant dans sa main une palme de même,. Elle est dirigée par un conseil ainsi que par sept prieurs. Elle a un caractère profondément catholique.
+Lorsqu'un vigneron est malade, ses confrères effectuent des journées de travail sur ses vignes,. Toutefois aucun salaire ne lui est versé. Si il décède, la confrérie travail gratuitement 70 jours pour sa veuve et ses enfants,.
+La fête de Saint-Vernier a cours le mardi de Quasimodo. Les membres fond une offrande à leur saint patron et boivent quelques goutes de vin dans un même vase, suivant l'ancienne coutume,. Il sont vêtus d'une culotte ainsi que d'un chapeau tricorne ; tenu de Barbizier ; personnage folklorique des vignerons bisontins.
 </t>
         </is>
       </c>
